--- a/Projeto_DIO_IR.xlsx
+++ b/Projeto_DIO_IR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio Teixeira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1D36BF-F7B8-4858-BE0E-2FE70CDB394E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814AE65C-BD23-4C92-91D7-CDD30D7F84AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="0" activeTab="2" xr2:uid="{D7F1918A-5718-490B-B1B7-92FEECE514DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="0" xr2:uid="{D7F1918A-5718-490B-B1B7-92FEECE514DE}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -332,11 +332,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="165" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="166" formatCode="00000\-000"/>
-    <numFmt numFmtId="170" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
-    <numFmt numFmtId="171" formatCode="&quot;(&quot;00&quot;)&quot;\ \90000&quot;-&quot;0000"/>
-    <numFmt numFmtId="172" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;(&quot;00&quot;)&quot;\ \90000&quot;-&quot;0000"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -534,16 +534,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,7 +545,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -559,15 +553,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -575,7 +569,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -587,9 +581,15 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -612,6 +612,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -628,7 +629,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="172" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2852,12 +2852,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E572A441-7D93-4EB6-8BD1-ABC595BB6BB9}" name="Tabela3" displayName="Tabela3" ref="C8:E30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E572A441-7D93-4EB6-8BD1-ABC595BB6BB9}" name="Tabela3" displayName="Tabela3" ref="C8:E30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="C8:E30" xr:uid="{E572A441-7D93-4EB6-8BD1-ABC595BB6BB9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E2982EE9-881C-4AE9-AA77-2DAFF109CA80}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EFF09EEE-CEED-433D-9495-2FD32A589DBC}" name="CATEGORIA" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3582670B-9EB6-4C52-99B5-316F718E80C5}" name="VALOR" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E2982EE9-881C-4AE9-AA77-2DAFF109CA80}" name="DATA" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EFF09EEE-CEED-433D-9495-2FD32A589DBC}" name="CATEGORIA" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3582670B-9EB6-4C52-99B5-316F718E80C5}" name="VALOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3163,8 +3163,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A3:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,17 +3182,17 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="3:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>12312312398</v>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>31263</v>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3248,7 +3248,7 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
   <dimension ref="A3:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3339,26 +3339,26 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="3:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f>SUM(D11,D16,D21)</f>
         <v>250800</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>145000</v>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>93500</v>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>12300</v>
       </c>
     </row>
@@ -3440,7 +3440,7 @@
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3468,8 +3468,8 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,193 +3488,193 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="3:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="7" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>45662</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>12000</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>45693</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>12000</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>45721</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>12000</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>45752</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>12000</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>45736</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>4500</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <v>45752</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>12000</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <v>45752</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>3200</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <v>45782</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>12000</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>45813</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>12000</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -3710,7 +3710,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Projeto_DIO_IR.xlsx
+++ b/Projeto_DIO_IR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio Teixeira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natally.lima\Desktop\Meus documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814AE65C-BD23-4C92-91D7-CDD30D7F84AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2604D51-8240-432F-A152-5607A86F77D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="0" xr2:uid="{D7F1918A-5718-490B-B1B7-92FEECE514DE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{D7F1918A-5718-490B-B1B7-92FEECE514DE}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -523,7 +534,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -591,6 +602,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="3" builtinId="8"/>
@@ -713,13 +725,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>393923</xdr:colOff>
+      <xdr:colOff>390748</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>238127</xdr:rowOff>
+      <xdr:rowOff>234952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1517871</xdr:colOff>
+      <xdr:colOff>1514696</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>39781</xdr:rowOff>
     </xdr:to>
@@ -763,7 +775,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:colOff>139701</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -771,7 +783,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1768918</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>87577</xdr:rowOff>
+      <xdr:rowOff>84402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -923,13 +935,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>163606</xdr:rowOff>
+      <xdr:rowOff>160431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:colOff>1816100</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>137832</xdr:rowOff>
+      <xdr:rowOff>141007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1007,13 +1019,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>86846</xdr:rowOff>
+      <xdr:rowOff>83671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:colOff>1816100</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>61072</xdr:rowOff>
+      <xdr:rowOff>64247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1095,7 +1107,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:colOff>1816100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>187699</xdr:rowOff>
     </xdr:to>
@@ -1251,8 +1263,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="3762375"/>
-          <a:ext cx="1695450" cy="419100"/>
+          <a:off x="177800" y="3692525"/>
+          <a:ext cx="1695450" cy="415551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,7 +1301,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0"/>
-            <a:t> BY DIO 💜</a:t>
+            <a:t> BY STAR WARS</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
         </a:p>
@@ -1300,9 +1312,9 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>142502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
@@ -1351,15 +1363,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11207</xdr:colOff>
+      <xdr:colOff>8032</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>25586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>8659</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:colOff>11834</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1408,8 +1420,124 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1"/>
-            <a:t>PRÓXIMO -&gt;</a:t>
+            <a:t>PRÓXIMO </a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>122670</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1969060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688DF6B9-1AA9-0B17-976D-2A2766224968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="125845" y="76760"/>
+          <a:ext cx="1846390" cy="1678083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2044700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Seta: para a Direita 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F0AA0D-FEF5-EE6C-0524-110D7622C3CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="4302125"/>
+          <a:ext cx="295275" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1423,13 +1551,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>393923</xdr:colOff>
+      <xdr:colOff>387573</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>238127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1517871</xdr:colOff>
+      <xdr:colOff>1511521</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>163046</xdr:rowOff>
     </xdr:to>
@@ -1690,7 +1818,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>42022</xdr:rowOff>
+      <xdr:rowOff>48372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
@@ -1972,7 +2100,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0"/>
-            <a:t> BY DIO 💜</a:t>
+            <a:t> BY STAR WARS</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
         </a:p>
@@ -2042,7 +2170,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>814</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>163233</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2091,7 +2219,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1"/>
-            <a:t>PRÓXIMO -&gt;</a:t>
+            <a:t>PRÓXIMO </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2109,7 +2237,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2645402</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>163233</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2158,8 +2286,190 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1"/>
-            <a:t>&lt;- ANTERIOR</a:t>
+            <a:t> ANTERIOR</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114297</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1961097</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050603DE-FA43-4BF9-A7C3-14A5647E790B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114297" y="66673"/>
+          <a:ext cx="1846800" cy="1676871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1734483</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2026933</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Seta: para a Direita 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8727335E-4D5E-40E9-8A43-9988A4487654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7220883" y="4810685"/>
+          <a:ext cx="298800" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>959200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Seta: para a Esquerda 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26DED55A-0FBF-EDBC-270D-A1B0092FA7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3302000" y="4816475"/>
+          <a:ext cx="295625" cy="122400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2173,15 +2483,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>393923</xdr:colOff>
+      <xdr:colOff>390748</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>238127</xdr:rowOff>
+      <xdr:rowOff>234952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1517871</xdr:colOff>
+      <xdr:colOff>1514696</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>81523</xdr:rowOff>
+      <xdr:rowOff>113273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2223,7 +2533,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:colOff>139701</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -2231,7 +2541,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1768918</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>87577</xdr:rowOff>
+      <xdr:rowOff>84402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2355,14 +2665,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>205348</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>186298</xdr:rowOff>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2440,13 +2750,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>138673</xdr:rowOff>
+      <xdr:rowOff>170423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:colOff>1816100</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>119623</xdr:rowOff>
+      <xdr:rowOff>151373</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2524,13 +2834,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>62473</xdr:rowOff>
+      <xdr:rowOff>94223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:colOff>1816100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>43423</xdr:rowOff>
+      <xdr:rowOff>75173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2608,13 +2918,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33898</xdr:rowOff>
+      <xdr:rowOff>59298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33898</xdr:rowOff>
+      <xdr:rowOff>59298</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2661,15 +2971,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>5323</xdr:rowOff>
+      <xdr:rowOff>37073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:colOff>1873250</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>5323</xdr:rowOff>
+      <xdr:rowOff>37073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2722,7 +3032,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0"/>
-            <a:t> BY DIO 💜</a:t>
+            <a:t> BY STAR WARS</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
         </a:p>
@@ -2733,15 +3043,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:colOff>844550</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>14849</xdr:rowOff>
+      <xdr:rowOff>40249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176774</xdr:rowOff>
+      <xdr:rowOff>208524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2783,16 +3093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>1133474</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2808,8 +3118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543175" y="1095376"/>
-          <a:ext cx="1000125" cy="152399"/>
+          <a:off x="2638424" y="1019175"/>
+          <a:ext cx="1133475" cy="241299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2841,8 +3151,124 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="900" b="1"/>
-            <a:t>&lt;- ANTERIOR</a:t>
+            <a:t> ANTERIOR</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88897</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1935697</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CE5CCB-B13A-42B1-93B9-4D927F9DBF5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85722" y="95252"/>
+          <a:ext cx="1846800" cy="1666874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Seta: para a Esquerda 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DA1F80-DA14-4469-B89D-2ADBA3021BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="1085850"/>
+          <a:ext cx="168275" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2852,8 +3278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E572A441-7D93-4EB6-8BD1-ABC595BB6BB9}" name="Tabela3" displayName="Tabela3" ref="C8:E30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="C8:E30" xr:uid="{E572A441-7D93-4EB6-8BD1-ABC595BB6BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E572A441-7D93-4EB6-8BD1-ABC595BB6BB9}" name="Tabela3" displayName="Tabela3" ref="C9:E31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="C9:E31" xr:uid="{E572A441-7D93-4EB6-8BD1-ABC595BB6BB9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E2982EE9-881C-4AE9-AA77-2DAFF109CA80}" name="DATA" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{EFF09EEE-CEED-433D-9495-2FD32A589DBC}" name="CATEGORIA" dataDxfId="1"/>
@@ -2864,9 +3290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2904,7 +3330,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3010,7 +3436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3152,7 +3578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3163,32 +3589,32 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A3:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29" style="24" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="3:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +3622,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3204,7 +3630,7 @@
         <v>12312312398</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +3638,7 @@
         <v>31263</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,7 +3646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
@@ -3228,7 +3654,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3662,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
@@ -3244,7 +3670,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -3252,7 +3678,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
@@ -3260,7 +3686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3694,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +3702,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -3284,7 +3710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
@@ -3292,7 +3718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
@@ -3320,49 +3746,49 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A3:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="3:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C6" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="9">
         <f>SUM(D11,D16,D21)</f>
-        <v>250800</v>
+        <v>2658933</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C9" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
@@ -3370,15 +3796,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="18">
-        <v>145000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>2546633</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3386,12 +3812,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -3399,15 +3825,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="18">
-        <v>93500</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -3415,12 +3841,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -3428,7 +3854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
@@ -3436,7 +3862,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C22" s="3" t="s">
         <v>22</v>
       </c>
@@ -3466,66 +3892,55 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16140FB0-2586-4C7A-A405-B5B5EBE05996}">
   <sheetPr codeName="Planilha5"/>
-  <dimension ref="A3:E30"/>
+  <dimension ref="A3:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="3:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C4" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="7" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="23" t="s">
+    <row r="8" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="19">
+    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C10" s="19">
         <v>45662</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="21">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="19">
-        <v>45693</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>96</v>
@@ -3534,9 +3949,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C11" s="19">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>96</v>
@@ -3545,9 +3960,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C12" s="19">
-        <v>45752</v>
+        <v>45721</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>96</v>
@@ -3556,53 +3971,53 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C13" s="19">
+        <v>45752</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C14" s="19">
         <v>45736</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E14" s="21">
         <v>4500</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="19">
-        <v>45752</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="21">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C15" s="19">
         <v>45752</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C16" s="19">
+        <v>45752</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E16" s="21">
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="19">
+    <row r="17" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C17" s="19">
         <v>45782</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="21">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="19">
-        <v>45813</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>96</v>
@@ -3611,79 +4026,90 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C18" s="19">
+        <v>45813</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
     </row>
-    <row r="20" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
     </row>
-    <row r="21" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
     </row>
-    <row r="27" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D30" xr:uid="{B163DBA9-A926-4BC6-ACF3-52CC27130599}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D31" xr:uid="{B163DBA9-A926-4BC6-ACF3-52CC27130599}">
       <formula1>"HOLERITE,CNPJ,FREELANCE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3704,262 +4130,262 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>72</v>
       </c>
